--- a/genshin/513798356275912663_2021-04-15_14-00-02.xlsx
+++ b/genshin/513798356275912663_2021-04-15_14-00-02.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -539,10 +555,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2021-04-23 05:19:21</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44309.22177083333</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -606,10 +620,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2021-04-18 17:56:51</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44304.7478125</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -673,10 +685,8 @@
           <t>4416891880</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2021-04-17 03:48:02</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44303.15835648148</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -752,10 +762,8 @@
           <t>4421487602</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2021-04-17 02:23:24</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44303.09958333334</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -823,10 +831,8 @@
           <t>4417249616</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2021-04-16 21:30:51</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44302.89642361111</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -894,10 +900,8 @@
           <t>4417249616</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2021-04-16 19:57:59</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44302.83193287037</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -973,10 +977,8 @@
           <t>4422917203</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2021-04-16 19:54:41</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44302.8296412037</v>
       </c>
       <c r="I8" t="n">
         <v>1</v>
@@ -1040,10 +1042,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2021-04-16 18:51:04</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44302.78546296297</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1107,10 +1107,8 @@
           <t>4421785136</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2021-04-16 15:46:51</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44302.65753472222</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1178,10 +1176,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2021-04-16 15:28:21</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44302.6446875</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1245,10 +1241,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2021-04-16 15:27:42</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44302.64423611111</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1316,10 +1310,8 @@
           <t>4421487602</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2021-04-16 14:14:25</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44302.59334490741</v>
       </c>
       <c r="I13" t="n">
         <v>8</v>
@@ -1383,10 +1375,8 @@
           <t>4421455059</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2021-04-16 14:02:35</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44302.58512731481</v>
       </c>
       <c r="I14" t="n">
         <v>1</v>
@@ -1462,10 +1452,8 @@
           <t>4421328230</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2021-04-16 13:29:32</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44302.56217592592</v>
       </c>
       <c r="I15" t="n">
         <v>1</v>
@@ -1529,10 +1517,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2021-04-16 12:40:00</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44302.52777777778</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1596,10 +1582,8 @@
           <t>4419872586</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2021-04-16 11:54:52</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44302.49643518519</v>
       </c>
       <c r="I17" t="n">
         <v>1</v>
@@ -1667,10 +1651,8 @@
           <t>4420530700</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2021-04-16 11:54:09</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44302.4959375</v>
       </c>
       <c r="I18" t="n">
         <v>1</v>
@@ -1738,10 +1720,8 @@
           <t>4420817801</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2021-04-16 11:32:06</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44302.480625</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1824,10 +1804,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2021-04-16 10:30:04</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44302.4375462963</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1891,10 +1869,8 @@
           <t>4416867752</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2021-04-16 10:22:33</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44302.43232638889</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -1966,10 +1942,8 @@
           <t>4420530700</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2021-04-16 10:02:40</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44302.41851851852</v>
       </c>
       <c r="I22" t="n">
         <v>4</v>
@@ -2041,10 +2015,8 @@
           <t>4420519388</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2021-04-16 10:01:22</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44302.41761574074</v>
       </c>
       <c r="I23" t="n">
         <v>1</v>
@@ -2116,10 +2088,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2021-04-16 09:46:22</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44302.40719907408</v>
       </c>
       <c r="I24" t="n">
         <v>2</v>
@@ -2187,10 +2157,8 @@
           <t>4416836181</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2021-04-16 08:54:40</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44302.3712962963</v>
       </c>
       <c r="I25" t="n">
         <v>1</v>
@@ -2266,10 +2234,8 @@
           <t>4420334547</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2021-04-16 08:53:27</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44302.37045138889</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2341,10 +2307,8 @@
           <t>4416841420</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2021-04-16 08:28:42</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44302.35326388889</v>
       </c>
       <c r="I27" t="n">
         <v>1</v>
@@ -2420,10 +2384,8 @@
           <t>4420224934</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2021-04-16 08:06:52</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44302.33810185185</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2483,10 +2445,8 @@
           <t>4416867752</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2021-04-16 07:46:37</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44302.32403935185</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2564,10 +2524,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2021-04-16 07:36:08</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44302.31675925926</v>
       </c>
       <c r="I30" t="n">
         <v>3</v>
@@ -2637,10 +2595,8 @@
           <t>4416875720</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2021-04-16 05:06:42</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44302.21298611111</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2704,10 +2660,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2021-04-16 04:22:59</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44302.18262731482</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -2775,10 +2729,8 @@
           <t>4419869561</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2021-04-16 02:05:48</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44302.08736111111</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -2846,10 +2798,8 @@
           <t>4419872586</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2021-04-16 02:05:31</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44302.08716435185</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -2917,10 +2867,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2021-04-16 01:58:37</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44302.08237268519</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -2992,10 +2940,8 @@
           <t>4416875720</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2021-04-16 01:43:47</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44302.07207175926</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3064,10 +3010,8 @@
           <t>4419800576</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2021-04-16 01:25:14</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44302.05918981481</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3135,10 +3079,8 @@
           <t>4416836181</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2021-04-16 01:22:34</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44302.05733796296</v>
       </c>
       <c r="I38" t="n">
         <v>1</v>
@@ -3206,10 +3148,8 @@
           <t>4417045601</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2021-04-15 23:33:50</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44301.98182870371</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3277,10 +3217,8 @@
           <t>4419342156</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2021-04-15 23:28:50</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44301.97835648148</v>
       </c>
       <c r="I40" t="n">
         <v>1</v>
@@ -3345,10 +3283,8 @@
           <t>4418190061</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2021-04-15 23:08:31</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44301.96424768519</v>
       </c>
       <c r="I41" t="n">
         <v>1</v>
@@ -3416,10 +3352,8 @@
           <t>4417045601</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2021-04-15 22:52:36</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44301.95319444445</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3483,10 +3417,8 @@
           <t>4419027357</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2021-04-15 22:33:02</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44301.93960648148</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3562,10 +3494,8 @@
           <t>4418894498</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2021-04-15 22:09:45</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44301.9234375</v>
       </c>
       <c r="I44" t="n">
         <v>1</v>
@@ -3641,10 +3571,8 @@
           <t>4418513913</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2021-04-15 22:06:31</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44301.92119212963</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -3720,10 +3648,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2021-04-15 21:51:06</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44301.91048611111</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -3791,10 +3717,8 @@
           <t>4418797395</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2021-04-15 21:50:47</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44301.9102662037</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -3858,10 +3782,8 @@
           <t>4418766895</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2021-04-15 21:44:51</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44301.90614583333</v>
       </c>
       <c r="I48" t="n">
         <v>21</v>
@@ -3925,10 +3847,8 @@
           <t>4418513913</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2021-04-15 21:44:19</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44301.90577546296</v>
       </c>
       <c r="I49" t="n">
         <v>1</v>
@@ -4000,10 +3920,8 @@
           <t>4418710831</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2021-04-15 21:32:59</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44301.89790509259</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -4075,10 +3993,8 @@
           <t>4416987944</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2021-04-15 21:00:32</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44301.87537037037</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -4150,10 +4066,8 @@
           <t>4416987944</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2021-04-15 20:43:24</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44301.86347222222</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -4225,10 +4139,8 @@
           <t>4417251455</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2021-04-15 20:35:39</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44301.85809027778</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -4288,10 +4200,8 @@
           <t>4418190061</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2021-04-15 20:35:34</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44301.85803240741</v>
       </c>
       <c r="I54" t="n">
         <v>2</v>
@@ -4355,10 +4265,8 @@
           <t>4417028957</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2021-04-15 20:32:06</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44301.855625</v>
       </c>
       <c r="I55" t="n">
         <v>1</v>
@@ -4434,10 +4342,8 @@
           <t>4418338956</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2021-04-15 20:21:49</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44301.8484837963</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -4509,10 +4415,8 @@
           <t>4417028957</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2021-04-15 20:04:47</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44301.83665509259</v>
       </c>
       <c r="I57" t="n">
         <v>3</v>
@@ -4580,10 +4484,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2021-04-15 19:48:59</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44301.82568287037</v>
       </c>
       <c r="I58" t="n">
         <v>2</v>
@@ -4651,10 +4553,8 @@
           <t>4418190061</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2021-04-15 19:48:38</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44301.82543981481</v>
       </c>
       <c r="I59" t="n">
         <v>8</v>
@@ -4727,10 +4627,8 @@
           <t>4416951336</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2021-04-15 19:35:07</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44301.81605324074</v>
       </c>
       <c r="I60" t="n">
         <v>2</v>
@@ -4802,10 +4700,8 @@
           <t>4418104221</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2021-04-15 19:32:51</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44301.81447916666</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -4876,10 +4772,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2021-04-15 19:31:27</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44301.81350694445</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -4947,10 +4841,8 @@
           <t>4418097449</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2021-04-15 19:30:51</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44301.81309027778</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -5014,10 +4906,8 @@
           <t>4418031789</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2021-04-15 19:18:35</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44301.80457175926</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -5089,10 +4979,8 @@
           <t>4418031789</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2021-04-15 19:17:07</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44301.80355324074</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -5168,10 +5056,8 @@
           <t>4417860604</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2021-04-15 19:02:35</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44301.79346064815</v>
       </c>
       <c r="I66" t="n">
         <v>4</v>
@@ -5243,10 +5129,8 @@
           <t>4417951820</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2021-04-15 19:01:24</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44301.79263888889</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -5314,10 +5198,8 @@
           <t>4417691672</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2021-04-15 19:00:19</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44301.79188657407</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -5389,10 +5271,8 @@
           <t>4417859367</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2021-04-15 18:59:50</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44301.79155092593</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -5470,10 +5350,8 @@
           <t>4416867752</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2021-04-15 18:58:51</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44301.79086805556</v>
       </c>
       <c r="I70" t="n">
         <v>1</v>
@@ -5541,10 +5419,8 @@
           <t>4417859367</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2021-04-15 18:57:31</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44301.78994212963</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -5616,10 +5492,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2021-04-15 18:57:00</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44301.78958333333</v>
       </c>
       <c r="I72" t="n">
         <v>2</v>
@@ -5691,10 +5565,8 @@
           <t>4417532167</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2021-04-15 18:56:19</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44301.7891087963</v>
       </c>
       <c r="I73" t="n">
         <v>1</v>
@@ -5770,10 +5642,8 @@
           <t>4416875720</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2021-04-15 18:55:52</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44301.7887962963</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -5845,10 +5715,8 @@
           <t>4417904072</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2021-04-15 18:52:15</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44301.78628472222</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
@@ -5916,10 +5784,8 @@
           <t>4417231000</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2021-04-15 18:51:43</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44301.78591435185</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -5991,10 +5857,8 @@
           <t>4417872530</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2021-04-15 18:45:36</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44301.78166666667</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -6067,10 +5931,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2021-04-15 18:45:31</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44301.78160879629</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -6146,10 +6008,8 @@
           <t>4417859367</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2021-04-15 18:43:43</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44301.7803587963</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
@@ -6227,10 +6087,8 @@
           <t>4417860604</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2021-04-15 18:43:05</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44301.77991898148</v>
       </c>
       <c r="I80" t="n">
         <v>1</v>
@@ -6303,10 +6161,8 @@
           <t>4417823297</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2021-04-15 18:36:07</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44301.77508101852</v>
       </c>
       <c r="I81" t="n">
         <v>2</v>
@@ -6370,10 +6226,8 @@
           <t>4417819186</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2021-04-15 18:36:05</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44301.77505787037</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
@@ -6450,10 +6304,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2021-04-15 18:31:06</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44301.77159722222</v>
       </c>
       <c r="I83" t="n">
         <v>489</v>
@@ -6517,10 +6369,8 @@
           <t>4417800551</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2021-04-15 18:30:51</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44301.77142361111</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -6596,10 +6446,8 @@
           <t>4417197853</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2021-04-15 18:29:36</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44301.77055555556</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
@@ -6668,10 +6516,8 @@
           <t>4417791273</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2021-04-15 18:28:41</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44301.76991898148</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -6739,10 +6585,8 @@
           <t>4416875720</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2021-04-15 18:12:05</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44301.7583912037</v>
       </c>
       <c r="I87" t="n">
         <v>1</v>
@@ -6806,10 +6650,8 @@
           <t>4417705103</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2021-04-15 18:11:40</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44301.75810185185</v>
       </c>
       <c r="I88" t="n">
         <v>1</v>
@@ -6881,10 +6723,8 @@
           <t>4417703717</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2021-04-15 18:11:40</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44301.75810185185</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -6950,10 +6790,8 @@
           <t>4417691672</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2021-04-15 18:09:36</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44301.75666666667</v>
       </c>
       <c r="I90" t="n">
         <v>1</v>
@@ -7035,10 +6873,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2021-04-15 18:08:49</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44301.75612268518</v>
       </c>
       <c r="I91" t="n">
         <v>205</v>
@@ -7106,10 +6942,8 @@
           <t>4417687260</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2021-04-15 18:07:37</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44301.75528935185</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -7181,10 +7015,8 @@
           <t>4417251455</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2021-04-15 18:06:24</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44301.75444444444</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -7252,10 +7084,8 @@
           <t>4417674360</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2021-04-15 18:05:52</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44301.75407407407</v>
       </c>
       <c r="I94" t="n">
         <v>1</v>
@@ -7319,10 +7149,8 @@
           <t>4416875720</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2021-04-15 17:56:33</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44301.74760416667</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
@@ -7382,10 +7210,8 @@
           <t>4417222845</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2021-04-15 17:53:44</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44301.74564814815</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
@@ -7449,10 +7275,8 @@
           <t>4417604778</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2021-04-15 17:53:20</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44301.74537037037</v>
       </c>
       <c r="I97" t="n">
         <v>2</v>
@@ -7512,10 +7336,8 @@
           <t>4417608510</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2021-04-15 17:52:39</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44301.74489583333</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
@@ -7575,10 +7397,8 @@
           <t>4417602738</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2021-04-15 17:52:01</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44301.74445601852</v>
       </c>
       <c r="I99" t="n">
         <v>2</v>
@@ -7638,10 +7458,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2021-04-15 17:43:05</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44301.73825231481</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
@@ -7713,10 +7531,8 @@
           <t>4417544460</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2021-04-15 17:39:29</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44301.73575231482</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
@@ -7792,10 +7608,8 @@
           <t>4417061307</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2021-04-15 17:35:37</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44301.73306712963</v>
       </c>
       <c r="I102" t="n">
         <v>3</v>
@@ -7871,10 +7685,8 @@
           <t>4417532167</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2021-04-15 17:34:23</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44301.73221064815</v>
       </c>
       <c r="I103" t="n">
         <v>2</v>
@@ -7942,10 +7754,8 @@
           <t>4416836181</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2021-04-15 17:33:19</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44301.7314699074</v>
       </c>
       <c r="I104" t="n">
         <v>3</v>
@@ -8021,10 +7831,8 @@
           <t>4417490311</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2021-04-15 17:22:30</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44301.72395833334</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
@@ -8096,10 +7904,8 @@
           <t>4417476846</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2021-04-15 17:19:57</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44301.7221875</v>
       </c>
       <c r="I106" t="n">
         <v>1</v>
@@ -8175,10 +7981,8 @@
           <t>4417467431</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2021-04-15 17:19:51</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44301.72211805556</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
@@ -8254,10 +8058,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2021-04-15 17:17:15</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44301.7203125</v>
       </c>
       <c r="I108" t="n">
         <v>6</v>
@@ -8325,10 +8127,8 @@
           <t>4416875720</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2021-04-15 17:12:19</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44301.71688657408</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
@@ -8400,10 +8200,8 @@
           <t>4416875720</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2021-04-15 17:12:18</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44301.716875</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
@@ -8479,10 +8277,8 @@
           <t>4416875720</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2021-04-15 17:01:42</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44301.70951388889</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
@@ -8546,10 +8342,8 @@
           <t>4417222845</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2021-04-15 17:00:48</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44301.70888888889</v>
       </c>
       <c r="I112" t="n">
         <v>2</v>
@@ -8625,10 +8419,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2021-04-15 16:59:47</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44301.70818287037</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
@@ -8696,10 +8488,8 @@
           <t>4417377803</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2021-04-15 16:57:35</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44301.7066550926</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
@@ -8767,10 +8557,8 @@
           <t>4417373620</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2021-04-15 16:55:25</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44301.70515046296</v>
       </c>
       <c r="I115" t="n">
         <v>2</v>
@@ -8846,10 +8634,8 @@
           <t>4416875720</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2021-04-15 16:51:30</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44301.70243055555</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
@@ -8917,10 +8703,8 @@
           <t>4417331498</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2021-04-15 16:44:29</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44301.69755787037</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
@@ -8988,10 +8772,8 @@
           <t>4417329279</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2021-04-15 16:43:54</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44301.69715277778</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
@@ -9059,10 +8841,8 @@
           <t>4416890884</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2021-04-15 16:37:33</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44301.69274305556</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
@@ -9131,10 +8911,8 @@
           <t>4416950175</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2021-04-15 16:37:29</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44301.69269675926</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
@@ -9202,10 +8980,8 @@
           <t>4417222845</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2021-04-15 16:29:58</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44301.68747685185</v>
       </c>
       <c r="I121" t="n">
         <v>1</v>
@@ -9269,10 +9045,8 @@
           <t>4417281678</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2021-04-15 16:29:11</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44301.68693287037</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
@@ -9344,10 +9118,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2021-04-15 16:28:16</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44301.6862962963</v>
       </c>
       <c r="I123" t="n">
         <v>2</v>
@@ -9411,10 +9183,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2021-04-15 16:27:52</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44301.68601851852</v>
       </c>
       <c r="I124" t="n">
         <v>17</v>
@@ -9486,10 +9256,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2021-04-15 16:27:32</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44301.68578703704</v>
       </c>
       <c r="I125" t="n">
         <v>2</v>
@@ -9553,10 +9321,8 @@
           <t>4417264025</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2021-04-15 16:26:55</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44301.6853587963</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
@@ -9628,10 +9394,8 @@
           <t>4417249616</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2021-04-15 16:23:04</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44301.68268518519</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
@@ -9699,10 +9463,8 @@
           <t>4417058328</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2021-04-15 16:22:46</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44301.68247685185</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
@@ -9779,10 +9541,8 @@
           <t>4416875720</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2021-04-15 16:22:28</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44301.68226851852</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
@@ -9854,10 +9614,8 @@
           <t>4417222845</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2021-04-15 16:22:14</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44301.68210648148</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
@@ -9933,10 +9691,8 @@
           <t>4417251455</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2021-04-15 16:20:23</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44301.68082175926</v>
       </c>
       <c r="I131" t="n">
         <v>2</v>
@@ -10004,10 +9760,8 @@
           <t>4416836181</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2021-04-15 16:19:40</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44301.68032407408</v>
       </c>
       <c r="I132" t="n">
         <v>1</v>
@@ -10075,10 +9829,8 @@
           <t>4416891880</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2021-04-15 16:18:56</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44301.67981481482</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
@@ -10146,10 +9898,8 @@
           <t>4417240697</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2021-04-15 16:18:12</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44301.67930555555</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
@@ -10213,10 +9963,8 @@
           <t>4417231000</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2021-04-15 16:15:26</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44301.67738425926</v>
       </c>
       <c r="I135" t="n">
         <v>2</v>
@@ -10292,10 +10040,8 @@
           <t>4416875720</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2021-04-15 16:14:58</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44301.67706018518</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
@@ -10373,10 +10119,8 @@
           <t>4416853631</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2021-04-15 16:13:06</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44301.67576388889</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
@@ -10447,10 +10191,8 @@
           <t>4417222845</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2021-04-15 16:12:43</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44301.67549768519</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
@@ -10514,10 +10256,8 @@
           <t>4417208429</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2021-04-15 16:08:47</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44301.6727662037</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
@@ -10585,10 +10325,8 @@
           <t>4417199900</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2021-04-15 16:08:30</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44301.67256944445</v>
       </c>
       <c r="I140" t="n">
         <v>2</v>
@@ -10656,10 +10394,8 @@
           <t>4417198291</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2021-04-15 16:07:00</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44301.67152777778</v>
       </c>
       <c r="I141" t="n">
         <v>2</v>
@@ -10723,10 +10459,8 @@
           <t>4417197853</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2021-04-15 16:06:34</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44301.67122685185</v>
       </c>
       <c r="I142" t="n">
         <v>3</v>
@@ -10802,10 +10536,8 @@
           <t>4417197287</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2021-04-15 16:06:04</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44301.67087962963</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
@@ -10882,10 +10614,8 @@
           <t>4417045601</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2021-04-15 16:05:19</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44301.6703587963</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
@@ -10949,10 +10679,8 @@
           <t>4417189648</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2021-04-15 16:05:11</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44301.67026620371</v>
       </c>
       <c r="I145" t="n">
         <v>1</v>
@@ -11028,10 +10756,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2021-04-15 16:02:18</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44301.66826388889</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
@@ -11103,10 +10829,8 @@
           <t>4417176512</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2021-04-15 15:57:42</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44301.66506944445</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
@@ -11178,10 +10902,8 @@
           <t>4417170316</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2021-04-15 15:56:34</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44301.66428240741</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
@@ -11245,10 +10967,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2021-04-15 15:55:51</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44301.66378472222</v>
       </c>
       <c r="I149" t="n">
         <v>7</v>
@@ -11316,10 +11036,8 @@
           <t>4416875720</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2021-04-15 15:51:21</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44301.66065972222</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
@@ -11387,10 +11105,8 @@
           <t>4416875720</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2021-04-15 15:49:59</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44301.65971064815</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
@@ -11466,10 +11182,8 @@
           <t>4417045601</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2021-04-15 15:49:43</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44301.65952546296</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
@@ -11545,10 +11259,8 @@
           <t>4416853631</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2021-04-15 15:49:37</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44301.65945601852</v>
       </c>
       <c r="I153" t="n">
         <v>1</v>
@@ -11624,10 +11336,8 @@
           <t>4417045601</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2021-04-15 15:49:21</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44301.65927083333</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
@@ -11696,10 +11406,8 @@
           <t>4417142650</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2021-04-15 15:49:13</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44301.65917824074</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
@@ -11772,10 +11480,8 @@
           <t>4416890884</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2021-04-15 15:49:08</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44301.65912037037</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
@@ -11847,10 +11553,8 @@
           <t>4417145617</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2021-04-15 15:47:14</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44301.65780092592</v>
       </c>
       <c r="I157" t="n">
         <v>2</v>
@@ -11918,10 +11622,8 @@
           <t>4416875720</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2021-04-15 15:46:39</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44301.65739583333</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
@@ -11997,10 +11699,8 @@
           <t>4417045601</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2021-04-15 15:46:36</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44301.65736111111</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
@@ -12064,10 +11764,8 @@
           <t>4416875720</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2021-04-15 15:46:02</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44301.65696759259</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
@@ -12135,10 +11833,8 @@
           <t>4417045601</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2021-04-15 15:45:08</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44301.65634259259</v>
       </c>
       <c r="I161" t="n">
         <v>2</v>
@@ -12207,10 +11903,8 @@
           <t>4416944207</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2021-04-15 15:42:04</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44301.65421296296</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
@@ -12278,10 +11972,8 @@
           <t>4417045601</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2021-04-15 15:41:34</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44301.65386574074</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
@@ -12345,10 +12037,8 @@
           <t>4417120903</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2021-04-15 15:40:51</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44301.65336805556</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
@@ -12416,10 +12106,8 @@
           <t>4416875720</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2021-04-15 15:40:36</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44301.65319444444</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
@@ -12495,10 +12183,8 @@
           <t>4417099100</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2021-04-15 15:35:50</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44301.64988425926</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
@@ -12570,10 +12256,8 @@
           <t>4417105582</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2021-04-15 15:35:38</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44301.64974537037</v>
       </c>
       <c r="I167" t="n">
         <v>1</v>
@@ -12637,10 +12321,8 @@
           <t>4417098163</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2021-04-15 15:34:55</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44301.64924768519</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
@@ -12716,10 +12398,8 @@
           <t>4416962511</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2021-04-15 15:34:40</t>
-        </is>
+      <c r="H169" s="1" t="n">
+        <v>44301.64907407408</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
@@ -12787,10 +12467,8 @@
           <t>4417054149</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2021-04-15 15:33:55</t>
-        </is>
+      <c r="H170" s="1" t="n">
+        <v>44301.64855324074</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
@@ -12854,10 +12532,8 @@
           <t>4417054149</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2021-04-15 15:33:54</t>
-        </is>
+      <c r="H171" s="1" t="n">
+        <v>44301.64854166667</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
@@ -12921,10 +12597,8 @@
           <t>4417101336</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2021-04-15 15:33:12</t>
-        </is>
+      <c r="H172" s="1" t="n">
+        <v>44301.64805555555</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
@@ -12996,10 +12670,8 @@
           <t>4416875720</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2021-04-15 15:32:27</t>
-        </is>
+      <c r="H173" s="1" t="n">
+        <v>44301.64753472222</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
@@ -13063,10 +12735,8 @@
           <t>4416875720</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2021-04-15 15:32:20</t>
-        </is>
+      <c r="H174" s="1" t="n">
+        <v>44301.64745370371</v>
       </c>
       <c r="I174" t="n">
         <v>5</v>
@@ -13140,10 +12810,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2021-04-15 15:31:39</t>
-        </is>
+      <c r="H175" s="1" t="n">
+        <v>44301.64697916667</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
@@ -13219,10 +12887,8 @@
           <t>4416875720</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2021-04-15 15:30:07</t>
-        </is>
+      <c r="H176" s="1" t="n">
+        <v>44301.64591435185</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
@@ -13286,10 +12952,8 @@
           <t>4417054149</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2021-04-15 15:27:32</t>
-        </is>
+      <c r="H177" s="1" t="n">
+        <v>44301.64412037037</v>
       </c>
       <c r="I177" t="n">
         <v>16</v>
@@ -13357,10 +13021,8 @@
           <t>4417075387</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>2021-04-15 15:25:25</t>
-        </is>
+      <c r="H178" s="1" t="n">
+        <v>44301.64265046296</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
@@ -13428,10 +13090,8 @@
           <t>4417054149</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2021-04-15 15:24:42</t>
-        </is>
+      <c r="H179" s="1" t="n">
+        <v>44301.64215277778</v>
       </c>
       <c r="I179" t="n">
         <v>6</v>
@@ -13507,10 +13167,8 @@
           <t>4417035713</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>2021-04-15 15:23:46</t>
-        </is>
+      <c r="H180" s="1" t="n">
+        <v>44301.64150462963</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
@@ -13583,10 +13241,8 @@
           <t>4417035713</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2021-04-15 15:23:11</t>
-        </is>
+      <c r="H181" s="1" t="n">
+        <v>44301.64109953704</v>
       </c>
       <c r="I181" t="n">
         <v>1</v>
@@ -13662,10 +13318,8 @@
           <t>4417071105</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2021-04-15 15:23:05</t>
-        </is>
+      <c r="H182" s="1" t="n">
+        <v>44301.64103009259</v>
       </c>
       <c r="I182" t="n">
         <v>1</v>
@@ -13733,10 +13387,8 @@
           <t>4416977996</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>2021-04-15 15:22:56</t>
-        </is>
+      <c r="H183" s="1" t="n">
+        <v>44301.64092592592</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
@@ -13804,10 +13456,8 @@
           <t>4417070291</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2021-04-15 15:22:17</t>
-        </is>
+      <c r="H184" s="1" t="n">
+        <v>44301.64047453704</v>
       </c>
       <c r="I184" t="n">
         <v>0</v>
@@ -13875,10 +13525,8 @@
           <t>4417061307</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2021-04-15 15:21:25</t>
-        </is>
+      <c r="H185" s="1" t="n">
+        <v>44301.63987268518</v>
       </c>
       <c r="I185" t="n">
         <v>4</v>
@@ -13954,10 +13602,8 @@
           <t>4417054149</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2021-04-15 15:20:50</t>
-        </is>
+      <c r="H186" s="1" t="n">
+        <v>44301.63946759259</v>
       </c>
       <c r="I186" t="n">
         <v>13</v>
@@ -14033,10 +13679,8 @@
           <t>4417035713</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>2021-04-15 15:20:38</t>
-        </is>
+      <c r="H187" s="1" t="n">
+        <v>44301.63932870371</v>
       </c>
       <c r="I187" t="n">
         <v>0</v>
@@ -14108,10 +13752,8 @@
           <t>4417058328</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2021-04-15 15:20:19</t>
-        </is>
+      <c r="H188" s="1" t="n">
+        <v>44301.6391087963</v>
       </c>
       <c r="I188" t="n">
         <v>0</v>
@@ -14175,10 +13817,8 @@
           <t>4417049523</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>2021-04-15 15:19:38</t>
-        </is>
+      <c r="H189" s="1" t="n">
+        <v>44301.63863425926</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
@@ -14254,10 +13894,8 @@
           <t>4417045601</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>2021-04-15 15:19:20</t>
-        </is>
+      <c r="H190" s="1" t="n">
+        <v>44301.63842592593</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
@@ -14326,10 +13964,8 @@
           <t>4416867752</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>2021-04-15 15:17:48</t>
-        </is>
+      <c r="H191" s="1" t="n">
+        <v>44301.63736111111</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
@@ -14397,10 +14033,8 @@
           <t>4417003414</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>2021-04-15 15:17:42</t>
-        </is>
+      <c r="H192" s="1" t="n">
+        <v>44301.63729166667</v>
       </c>
       <c r="I192" t="n">
         <v>0</v>
@@ -14468,10 +14102,8 @@
           <t>4417046857</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>2021-04-15 15:17:01</t>
-        </is>
+      <c r="H193" s="1" t="n">
+        <v>44301.63681712963</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
@@ -14543,10 +14175,8 @@
           <t>4417046767</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>2021-04-15 15:16:56</t>
-        </is>
+      <c r="H194" s="1" t="n">
+        <v>44301.63675925926</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
@@ -14606,10 +14236,8 @@
           <t>4417046100</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>2021-04-15 15:16:16</t>
-        </is>
+      <c r="H195" s="1" t="n">
+        <v>44301.6362962963</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
@@ -14673,10 +14301,8 @@
           <t>4417035713</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>2021-04-15 15:16:08</t>
-        </is>
+      <c r="H196" s="1" t="n">
+        <v>44301.6362037037</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
@@ -14748,10 +14374,8 @@
           <t>4417045601</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>2021-04-15 15:15:47</t>
-        </is>
+      <c r="H197" s="1" t="n">
+        <v>44301.63596064815</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
@@ -14819,10 +14443,8 @@
           <t>4416951336</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>2021-04-15 15:15:47</t>
-        </is>
+      <c r="H198" s="1" t="n">
+        <v>44301.63596064815</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
@@ -14891,10 +14513,8 @@
           <t>4417042970</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>2021-04-15 15:14:59</t>
-        </is>
+      <c r="H199" s="1" t="n">
+        <v>44301.63540509259</v>
       </c>
       <c r="I199" t="n">
         <v>3</v>
@@ -14966,10 +14586,8 @@
           <t>4417042142</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>2021-04-15 15:14:11</t>
-        </is>
+      <c r="H200" s="1" t="n">
+        <v>44301.63484953704</v>
       </c>
       <c r="I200" t="n">
         <v>7</v>
@@ -15041,10 +14659,8 @@
           <t>4417037123</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>2021-04-15 15:13:45</t>
-        </is>
+      <c r="H201" s="1" t="n">
+        <v>44301.63454861111</v>
       </c>
       <c r="I201" t="n">
         <v>13</v>
@@ -15116,10 +14732,8 @@
           <t>4417035713</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>2021-04-15 15:13:21</t>
-        </is>
+      <c r="H202" s="1" t="n">
+        <v>44301.63427083333</v>
       </c>
       <c r="I202" t="n">
         <v>0</v>
@@ -15191,10 +14805,8 @@
           <t>4417019858</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>2021-04-15 15:13:00</t>
-        </is>
+      <c r="H203" s="1" t="n">
+        <v>44301.63402777778</v>
       </c>
       <c r="I203" t="n">
         <v>0</v>
@@ -15266,10 +14878,8 @@
           <t>4417032742</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>2021-04-15 15:12:56</t>
-        </is>
+      <c r="H204" s="1" t="n">
+        <v>44301.63398148148</v>
       </c>
       <c r="I204" t="n">
         <v>23</v>
@@ -15345,10 +14955,8 @@
           <t>4417035713</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2021-04-15 15:12:22</t>
-        </is>
+      <c r="H205" s="1" t="n">
+        <v>44301.63358796296</v>
       </c>
       <c r="I205" t="n">
         <v>0</v>
@@ -15420,10 +15028,8 @@
           <t>4416977996</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>2021-04-15 15:12:00</t>
-        </is>
+      <c r="H206" s="1" t="n">
+        <v>44301.63333333333</v>
       </c>
       <c r="I206" t="n">
         <v>0</v>
@@ -15487,10 +15093,8 @@
           <t>4416977996</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>2021-04-15 15:11:05</t>
-        </is>
+      <c r="H207" s="1" t="n">
+        <v>44301.63269675926</v>
       </c>
       <c r="I207" t="n">
         <v>0</v>
@@ -15562,10 +15166,8 @@
           <t>4417028957</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>2021-04-15 15:10:53</t>
-        </is>
+      <c r="H208" s="1" t="n">
+        <v>44301.63255787037</v>
       </c>
       <c r="I208" t="n">
         <v>10</v>
@@ -15641,10 +15243,8 @@
           <t>4417028850</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>2021-04-15 15:10:47</t>
-        </is>
+      <c r="H209" s="1" t="n">
+        <v>44301.63248842592</v>
       </c>
       <c r="I209" t="n">
         <v>3</v>
@@ -15712,10 +15312,8 @@
           <t>4417019858</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>2021-04-15 15:10:06</t>
-        </is>
+      <c r="H210" s="1" t="n">
+        <v>44301.63201388889</v>
       </c>
       <c r="I210" t="n">
         <v>0</v>
@@ -15779,10 +15377,8 @@
           <t>4417023077</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>2021-04-15 15:09:41</t>
-        </is>
+      <c r="H211" s="1" t="n">
+        <v>44301.63172453704</v>
       </c>
       <c r="I211" t="n">
         <v>7</v>
@@ -15859,10 +15455,8 @@
           <t>4416987944</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>2021-04-15 15:08:39</t>
-        </is>
+      <c r="H212" s="1" t="n">
+        <v>44301.63100694444</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
@@ -15926,10 +15520,8 @@
           <t>4416836181</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>2021-04-15 15:08:01</t>
-        </is>
+      <c r="H213" s="1" t="n">
+        <v>44301.63056712963</v>
       </c>
       <c r="I213" t="n">
         <v>1</v>
@@ -16005,10 +15597,8 @@
           <t>4417017667</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>2021-04-15 15:07:53</t>
-        </is>
+      <c r="H214" s="1" t="n">
+        <v>44301.63047453704</v>
       </c>
       <c r="I214" t="n">
         <v>3</v>
@@ -16072,10 +15662,8 @@
           <t>4417020019</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>2021-04-15 15:06:36</t>
-        </is>
+      <c r="H215" s="1" t="n">
+        <v>44301.62958333334</v>
       </c>
       <c r="I215" t="n">
         <v>1</v>
@@ -16143,10 +15731,8 @@
           <t>4416867752</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>2021-04-15 15:06:18</t>
-        </is>
+      <c r="H216" s="1" t="n">
+        <v>44301.629375</v>
       </c>
       <c r="I216" t="n">
         <v>0</v>
@@ -16218,10 +15804,8 @@
           <t>4416965842</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>2021-04-15 15:06:06</t>
-        </is>
+      <c r="H217" s="1" t="n">
+        <v>44301.62923611111</v>
       </c>
       <c r="I217" t="n">
         <v>1</v>
@@ -16289,10 +15873,8 @@
           <t>4416977996</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>2021-04-15 15:05:58</t>
-        </is>
+      <c r="H218" s="1" t="n">
+        <v>44301.62914351852</v>
       </c>
       <c r="I218" t="n">
         <v>1</v>
@@ -16368,10 +15950,8 @@
           <t>4416875720</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>2021-04-15 15:05:08</t>
-        </is>
+      <c r="H219" s="1" t="n">
+        <v>44301.62856481481</v>
       </c>
       <c r="I219" t="n">
         <v>1</v>
@@ -16443,10 +16023,8 @@
           <t>4416891880</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>2021-04-15 15:04:34</t>
-        </is>
+      <c r="H220" s="1" t="n">
+        <v>44301.6281712963</v>
       </c>
       <c r="I220" t="n">
         <v>3</v>
@@ -16510,10 +16088,8 @@
           <t>4416875720</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>2021-04-15 15:04:29</t>
-        </is>
+      <c r="H221" s="1" t="n">
+        <v>44301.62811342593</v>
       </c>
       <c r="I221" t="n">
         <v>0</v>
@@ -16590,10 +16166,8 @@
           <t>4416950175</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>2021-04-15 15:03:45</t>
-        </is>
+      <c r="H222" s="1" t="n">
+        <v>44301.62760416666</v>
       </c>
       <c r="I222" t="n">
         <v>0</v>
@@ -16669,10 +16243,8 @@
           <t>4417003414</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>2021-04-15 15:03:32</t>
-        </is>
+      <c r="H223" s="1" t="n">
+        <v>44301.6274537037</v>
       </c>
       <c r="I223" t="n">
         <v>6</v>
@@ -16736,10 +16308,8 @@
           <t>4417001924</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>2021-04-15 15:02:02</t>
-        </is>
+      <c r="H224" s="1" t="n">
+        <v>44301.62641203704</v>
       </c>
       <c r="I224" t="n">
         <v>4</v>
@@ -16807,10 +16377,8 @@
           <t>4416998845</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>2021-04-15 15:00:45</t>
-        </is>
+      <c r="H225" s="1" t="n">
+        <v>44301.62552083333</v>
       </c>
       <c r="I225" t="n">
         <v>0</v>
@@ -16880,10 +16448,8 @@
           <t>4416987944</t>
         </is>
       </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>2021-04-15 14:58:06</t>
-        </is>
+      <c r="H226" s="1" t="n">
+        <v>44301.62368055555</v>
       </c>
       <c r="I226" t="n">
         <v>3</v>
@@ -16947,10 +16513,8 @@
           <t>4416987049</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>2021-04-15 14:57:14</t>
-        </is>
+      <c r="H227" s="1" t="n">
+        <v>44301.62307870371</v>
       </c>
       <c r="I227" t="n">
         <v>9</v>
@@ -17026,10 +16590,8 @@
           <t>4416950175</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>2021-04-15 14:57:07</t>
-        </is>
+      <c r="H228" s="1" t="n">
+        <v>44301.62299768518</v>
       </c>
       <c r="I228" t="n">
         <v>0</v>
@@ -17101,10 +16663,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>2021-04-15 14:57:06</t>
-        </is>
+      <c r="H229" s="1" t="n">
+        <v>44301.62298611111</v>
       </c>
       <c r="I229" t="n">
         <v>9</v>
@@ -17172,10 +16732,8 @@
           <t>4416986170</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>2021-04-15 14:56:23</t>
-        </is>
+      <c r="H230" s="1" t="n">
+        <v>44301.62248842593</v>
       </c>
       <c r="I230" t="n">
         <v>0</v>
@@ -17253,10 +16811,8 @@
           <t>4416984091</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>2021-04-15 14:56:01</t>
-        </is>
+      <c r="H231" s="1" t="n">
+        <v>44301.6222337963</v>
       </c>
       <c r="I231" t="n">
         <v>8</v>
@@ -17320,10 +16876,8 @@
           <t>4416984035</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>2021-04-15 14:55:57</t>
-        </is>
+      <c r="H232" s="1" t="n">
+        <v>44301.6221875</v>
       </c>
       <c r="I232" t="n">
         <v>0</v>
@@ -17404,10 +16958,8 @@
           <t>4416950175</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>2021-04-15 14:55:53</t>
-        </is>
+      <c r="H233" s="1" t="n">
+        <v>44301.6221412037</v>
       </c>
       <c r="I233" t="n">
         <v>2</v>
@@ -17483,10 +17035,8 @@
           <t>4416979317</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>2021-04-15 14:55:39</t>
-        </is>
+      <c r="H234" s="1" t="n">
+        <v>44301.62197916667</v>
       </c>
       <c r="I234" t="n">
         <v>12</v>
@@ -17554,10 +17104,8 @@
           <t>4416907058</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>2021-04-15 14:55:11</t>
-        </is>
+      <c r="H235" s="1" t="n">
+        <v>44301.62165509259</v>
       </c>
       <c r="I235" t="n">
         <v>0</v>
@@ -17635,10 +17183,8 @@
           <t>4416977996</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>2021-04-15 14:54:21</t>
-        </is>
+      <c r="H236" s="1" t="n">
+        <v>44301.62107638889</v>
       </c>
       <c r="I236" t="n">
         <v>5</v>
@@ -17710,10 +17256,8 @@
           <t>4416962511</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>2021-04-15 14:52:59</t>
-        </is>
+      <c r="H237" s="1" t="n">
+        <v>44301.62012731482</v>
       </c>
       <c r="I237" t="n">
         <v>6</v>
@@ -17785,10 +17329,8 @@
           <t>4416971282</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>2021-04-15 14:52:21</t>
-        </is>
+      <c r="H238" s="1" t="n">
+        <v>44301.6196875</v>
       </c>
       <c r="I238" t="n">
         <v>1</v>
@@ -17852,10 +17394,8 @@
           <t>4416971282</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>2021-04-15 14:51:26</t>
-        </is>
+      <c r="H239" s="1" t="n">
+        <v>44301.61905092592</v>
       </c>
       <c r="I239" t="n">
         <v>1</v>
@@ -17927,10 +17467,8 @@
           <t>4416964280</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>2021-04-15 14:50:39</t>
-        </is>
+      <c r="H240" s="1" t="n">
+        <v>44301.61850694445</v>
       </c>
       <c r="I240" t="n">
         <v>2</v>
@@ -18006,10 +17544,8 @@
           <t>4416965842</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>2021-04-15 14:49:44</t>
-        </is>
+      <c r="H241" s="1" t="n">
+        <v>44301.61787037037</v>
       </c>
       <c r="I241" t="n">
         <v>2</v>
@@ -18073,10 +17609,8 @@
           <t>4416959478</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>2021-04-15 14:49:36</t>
-        </is>
+      <c r="H242" s="1" t="n">
+        <v>44301.61777777778</v>
       </c>
       <c r="I242" t="n">
         <v>95</v>
@@ -18140,10 +17674,8 @@
           <t>4416962511</t>
         </is>
       </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>2021-04-15 14:48:56</t>
-        </is>
+      <c r="H243" s="1" t="n">
+        <v>44301.61731481482</v>
       </c>
       <c r="I243" t="n">
         <v>0</v>
@@ -18211,10 +17743,8 @@
           <t>4416958056</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>2021-04-15 14:48:15</t>
-        </is>
+      <c r="H244" s="1" t="n">
+        <v>44301.61684027778</v>
       </c>
       <c r="I244" t="n">
         <v>0</v>
@@ -18274,10 +17804,8 @@
           <t>4416966190</t>
         </is>
       </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>2021-04-15 14:48:07</t>
-        </is>
+      <c r="H245" s="1" t="n">
+        <v>44301.61674768518</v>
       </c>
       <c r="I245" t="n">
         <v>5</v>
@@ -18345,10 +17873,8 @@
           <t>4416965842</t>
         </is>
       </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>2021-04-15 14:47:46</t>
-        </is>
+      <c r="H246" s="1" t="n">
+        <v>44301.61650462963</v>
       </c>
       <c r="I246" t="n">
         <v>1</v>
@@ -18424,10 +17950,8 @@
           <t>4416950175</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>2021-04-15 14:47:43</t>
-        </is>
+      <c r="H247" s="1" t="n">
+        <v>44301.61646990741</v>
       </c>
       <c r="I247" t="n">
         <v>0</v>
@@ -18495,10 +18019,8 @@
           <t>4416875720</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>2021-04-15 14:47:31</t>
-        </is>
+      <c r="H248" s="1" t="n">
+        <v>44301.61633101852</v>
       </c>
       <c r="I248" t="n">
         <v>0</v>
@@ -18574,10 +18096,8 @@
           <t>4416875720</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>2021-04-15 14:47:21</t>
-        </is>
+      <c r="H249" s="1" t="n">
+        <v>44301.61621527778</v>
       </c>
       <c r="I249" t="n">
         <v>0</v>
@@ -18649,10 +18169,8 @@
           <t>4416955918</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>2021-04-15 14:46:09</t>
-        </is>
+      <c r="H250" s="1" t="n">
+        <v>44301.61538194444</v>
       </c>
       <c r="I250" t="n">
         <v>141</v>
@@ -18728,10 +18246,8 @@
           <t>4416953866</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>2021-04-15 14:45:52</t>
-        </is>
+      <c r="H251" s="1" t="n">
+        <v>44301.61518518518</v>
       </c>
       <c r="I251" t="n">
         <v>28</v>
@@ -18803,10 +18319,8 @@
           <t>4416955321</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>2021-04-15 14:45:31</t>
-        </is>
+      <c r="H252" s="1" t="n">
+        <v>44301.61494212963</v>
       </c>
       <c r="I252" t="n">
         <v>0</v>
@@ -18874,10 +18388,8 @@
           <t>4416944207</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>2021-04-15 14:44:24</t>
-        </is>
+      <c r="H253" s="1" t="n">
+        <v>44301.61416666667</v>
       </c>
       <c r="I253" t="n">
         <v>4</v>
@@ -18949,10 +18461,8 @@
           <t>4416950175</t>
         </is>
       </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>2021-04-15 14:43:50</t>
-        </is>
+      <c r="H254" s="1" t="n">
+        <v>44301.61377314815</v>
       </c>
       <c r="I254" t="n">
         <v>0</v>
@@ -19024,10 +18534,8 @@
           <t>4416875720</t>
         </is>
       </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>2021-04-15 14:43:25</t>
-        </is>
+      <c r="H255" s="1" t="n">
+        <v>44301.6134837963</v>
       </c>
       <c r="I255" t="n">
         <v>0</v>
@@ -19105,10 +18613,8 @@
           <t>4416951336</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>2021-04-15 14:43:23</t>
-        </is>
+      <c r="H256" s="1" t="n">
+        <v>44301.61346064815</v>
       </c>
       <c r="I256" t="n">
         <v>95</v>
@@ -19176,10 +18682,8 @@
           <t>4416950175</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>2021-04-15 14:42:16</t>
-        </is>
+      <c r="H257" s="1" t="n">
+        <v>44301.61268518519</v>
       </c>
       <c r="I257" t="n">
         <v>2</v>
@@ -19252,10 +18756,8 @@
           <t>4416836181</t>
         </is>
       </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>2021-04-15 14:42:03</t>
-        </is>
+      <c r="H258" s="1" t="n">
+        <v>44301.61253472222</v>
       </c>
       <c r="I258" t="n">
         <v>9</v>
@@ -19331,10 +18833,8 @@
           <t>4416939598</t>
         </is>
       </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>2021-04-15 14:41:44</t>
-        </is>
+      <c r="H259" s="1" t="n">
+        <v>44301.61231481482</v>
       </c>
       <c r="I259" t="n">
         <v>5</v>
@@ -19406,10 +18906,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>2021-04-15 14:39:28</t>
-        </is>
+      <c r="H260" s="1" t="n">
+        <v>44301.61074074074</v>
       </c>
       <c r="I260" t="n">
         <v>67</v>
@@ -19481,10 +18979,8 @@
           <t>4416904791</t>
         </is>
       </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>2021-04-15 14:39:15</t>
-        </is>
+      <c r="H261" s="1" t="n">
+        <v>44301.61059027778</v>
       </c>
       <c r="I261" t="n">
         <v>3</v>
@@ -19556,10 +19052,8 @@
           <t>4416852585</t>
         </is>
       </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>2021-04-15 14:38:17</t>
-        </is>
+      <c r="H262" s="1" t="n">
+        <v>44301.60991898148</v>
       </c>
       <c r="I262" t="n">
         <v>1</v>
@@ -19623,10 +19117,8 @@
           <t>4416907058</t>
         </is>
       </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>2021-04-15 14:38:06</t>
-        </is>
+      <c r="H263" s="1" t="n">
+        <v>44301.60979166667</v>
       </c>
       <c r="I263" t="n">
         <v>0</v>
@@ -19702,10 +19194,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>2021-04-15 14:37:21</t>
-        </is>
+      <c r="H264" s="1" t="n">
+        <v>44301.60927083333</v>
       </c>
       <c r="I264" t="n">
         <v>1</v>
@@ -19769,10 +19259,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>2021-04-15 14:37:15</t>
-        </is>
+      <c r="H265" s="1" t="n">
+        <v>44301.60920138889</v>
       </c>
       <c r="I265" t="n">
         <v>5</v>
@@ -19844,10 +19332,8 @@
           <t>4416907058</t>
         </is>
       </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>2021-04-15 14:37:13</t>
-        </is>
+      <c r="H266" s="1" t="n">
+        <v>44301.60917824074</v>
       </c>
       <c r="I266" t="n">
         <v>2</v>
@@ -19911,10 +19397,8 @@
           <t>4416907058</t>
         </is>
       </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>2021-04-15 14:37:08</t>
-        </is>
+      <c r="H267" s="1" t="n">
+        <v>44301.60912037037</v>
       </c>
       <c r="I267" t="n">
         <v>1</v>
@@ -19986,10 +19470,8 @@
           <t>4416904791</t>
         </is>
       </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>2021-04-15 14:36:17</t>
-        </is>
+      <c r="H268" s="1" t="n">
+        <v>44301.60853009259</v>
       </c>
       <c r="I268" t="n">
         <v>0</v>
@@ -20061,10 +19543,8 @@
           <t>4416907058</t>
         </is>
       </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>2021-04-15 14:35:05</t>
-        </is>
+      <c r="H269" s="1" t="n">
+        <v>44301.60769675926</v>
       </c>
       <c r="I269" t="n">
         <v>1</v>
@@ -20144,10 +19624,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>2021-04-15 14:34:47</t>
-        </is>
+      <c r="H270" s="1" t="n">
+        <v>44301.60748842593</v>
       </c>
       <c r="I270" t="n">
         <v>60</v>
@@ -20211,10 +19689,8 @@
           <t>4416904791</t>
         </is>
       </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>2021-04-15 14:34:30</t>
-        </is>
+      <c r="H271" s="1" t="n">
+        <v>44301.60729166667</v>
       </c>
       <c r="I271" t="n">
         <v>0</v>
@@ -20286,10 +19762,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>2021-04-15 14:34:11</t>
-        </is>
+      <c r="H272" s="1" t="n">
+        <v>44301.60707175926</v>
       </c>
       <c r="I272" t="n">
         <v>0</v>
@@ -20353,10 +19827,8 @@
           <t>4416860830</t>
         </is>
       </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>2021-04-15 14:34:07</t>
-        </is>
+      <c r="H273" s="1" t="n">
+        <v>44301.60702546296</v>
       </c>
       <c r="I273" t="n">
         <v>1</v>
@@ -20420,10 +19892,8 @@
           <t>4416904791</t>
         </is>
       </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>2021-04-15 14:34:02</t>
-        </is>
+      <c r="H274" s="1" t="n">
+        <v>44301.60696759259</v>
       </c>
       <c r="I274" t="n">
         <v>3</v>
@@ -20495,10 +19965,8 @@
           <t>4416860507</t>
         </is>
       </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>2021-04-15 14:33:54</t>
-        </is>
+      <c r="H275" s="1" t="n">
+        <v>44301.606875</v>
       </c>
       <c r="I275" t="n">
         <v>3</v>
@@ -20562,10 +20030,8 @@
           <t>4416875720</t>
         </is>
       </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>2021-04-15 14:32:05</t>
-        </is>
+      <c r="H276" s="1" t="n">
+        <v>44301.60561342593</v>
       </c>
       <c r="I276" t="n">
         <v>0</v>
@@ -20633,10 +20099,8 @@
           <t>4416904791</t>
         </is>
       </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>2021-04-15 14:31:35</t>
-        </is>
+      <c r="H277" s="1" t="n">
+        <v>44301.6052662037</v>
       </c>
       <c r="I277" t="n">
         <v>7</v>
@@ -20708,10 +20172,8 @@
           <t>4416875720</t>
         </is>
       </c>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>2021-04-15 14:31:12</t>
-        </is>
+      <c r="H278" s="1" t="n">
+        <v>44301.605</v>
       </c>
       <c r="I278" t="n">
         <v>0</v>
@@ -20779,10 +20241,8 @@
           <t>4416875720</t>
         </is>
       </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>2021-04-15 14:31:06</t>
-        </is>
+      <c r="H279" s="1" t="n">
+        <v>44301.60493055556</v>
       </c>
       <c r="I279" t="n">
         <v>0</v>
@@ -20850,10 +20310,8 @@
           <t>4416904209</t>
         </is>
       </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>2021-04-15 14:31:01</t>
-        </is>
+      <c r="H280" s="1" t="n">
+        <v>44301.60487268519</v>
       </c>
       <c r="I280" t="n">
         <v>4</v>
@@ -20913,10 +20371,8 @@
           <t>4416875720</t>
         </is>
       </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>2021-04-15 14:31:00</t>
-        </is>
+      <c r="H281" s="1" t="n">
+        <v>44301.60486111111</v>
       </c>
       <c r="I281" t="n">
         <v>2</v>
@@ -20992,10 +20448,8 @@
           <t>4416899712</t>
         </is>
       </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>2021-04-15 14:30:19</t>
-        </is>
+      <c r="H282" s="1" t="n">
+        <v>44301.60438657407</v>
       </c>
       <c r="I282" t="n">
         <v>0</v>
@@ -21067,10 +20521,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>2021-04-15 14:29:44</t>
-        </is>
+      <c r="H283" s="1" t="n">
+        <v>44301.60398148148</v>
       </c>
       <c r="I283" t="n">
         <v>0</v>
@@ -21142,10 +20594,8 @@
           <t>4416907058</t>
         </is>
       </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>2021-04-15 14:29:39</t>
-        </is>
+      <c r="H284" s="1" t="n">
+        <v>44301.60392361111</v>
       </c>
       <c r="I284" t="n">
         <v>2</v>
@@ -21217,10 +20667,8 @@
           <t>4416853217</t>
         </is>
       </c>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>2021-04-15 14:29:31</t>
-        </is>
+      <c r="H285" s="1" t="n">
+        <v>44301.60383101852</v>
       </c>
       <c r="I285" t="n">
         <v>0</v>
@@ -21296,10 +20744,8 @@
           <t>4416891880</t>
         </is>
       </c>
-      <c r="H286" t="inlineStr">
-        <is>
-          <t>2021-04-15 14:29:06</t>
-        </is>
+      <c r="H286" s="1" t="n">
+        <v>44301.60354166666</v>
       </c>
       <c r="I286" t="n">
         <v>4</v>
@@ -21363,10 +20809,8 @@
           <t>4416875720</t>
         </is>
       </c>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>2021-04-15 14:28:56</t>
-        </is>
+      <c r="H287" s="1" t="n">
+        <v>44301.60342592592</v>
       </c>
       <c r="I287" t="n">
         <v>3</v>
@@ -21438,10 +20882,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>2021-04-15 14:27:50</t>
-        </is>
+      <c r="H288" s="1" t="n">
+        <v>44301.60266203704</v>
       </c>
       <c r="I288" t="n">
         <v>1</v>
@@ -21505,10 +20947,8 @@
           <t>4416853217</t>
         </is>
       </c>
-      <c r="H289" t="inlineStr">
-        <is>
-          <t>2021-04-15 14:27:24</t>
-        </is>
+      <c r="H289" s="1" t="n">
+        <v>44301.60236111111</v>
       </c>
       <c r="I289" t="n">
         <v>6</v>
@@ -21568,10 +21008,8 @@
           <t>4416875720</t>
         </is>
       </c>
-      <c r="H290" t="inlineStr">
-        <is>
-          <t>2021-04-15 14:27:15</t>
-        </is>
+      <c r="H290" s="1" t="n">
+        <v>44301.60225694445</v>
       </c>
       <c r="I290" t="n">
         <v>0</v>
@@ -21639,10 +21077,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H291" t="inlineStr">
-        <is>
-          <t>2021-04-15 14:27:09</t>
-        </is>
+      <c r="H291" s="1" t="n">
+        <v>44301.6021875</v>
       </c>
       <c r="I291" t="n">
         <v>0</v>
@@ -21714,10 +21150,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H292" t="inlineStr">
-        <is>
-          <t>2021-04-15 14:26:59</t>
-        </is>
+      <c r="H292" s="1" t="n">
+        <v>44301.60207175926</v>
       </c>
       <c r="I292" t="n">
         <v>0</v>
@@ -21789,10 +21223,8 @@
           <t>4416875720</t>
         </is>
       </c>
-      <c r="H293" t="inlineStr">
-        <is>
-          <t>2021-04-15 14:26:39</t>
-        </is>
+      <c r="H293" s="1" t="n">
+        <v>44301.60184027778</v>
       </c>
       <c r="I293" t="n">
         <v>0</v>
@@ -21860,10 +21292,8 @@
           <t>4416853217</t>
         </is>
       </c>
-      <c r="H294" t="inlineStr">
-        <is>
-          <t>2021-04-15 14:26:36</t>
-        </is>
+      <c r="H294" s="1" t="n">
+        <v>44301.60180555555</v>
       </c>
       <c r="I294" t="n">
         <v>0</v>
@@ -21939,10 +21369,8 @@
           <t>4416867752</t>
         </is>
       </c>
-      <c r="H295" t="inlineStr">
-        <is>
-          <t>2021-04-15 14:26:10</t>
-        </is>
+      <c r="H295" s="1" t="n">
+        <v>44301.60150462963</v>
       </c>
       <c r="I295" t="n">
         <v>0</v>
@@ -22010,10 +21438,8 @@
           <t>4416891880</t>
         </is>
       </c>
-      <c r="H296" t="inlineStr">
-        <is>
-          <t>2021-04-15 14:26:05</t>
-        </is>
+      <c r="H296" s="1" t="n">
+        <v>44301.60144675926</v>
       </c>
       <c r="I296" t="n">
         <v>8</v>
@@ -22089,10 +21515,8 @@
           <t>4416858676</t>
         </is>
       </c>
-      <c r="H297" t="inlineStr">
-        <is>
-          <t>2021-04-15 14:26:01</t>
-        </is>
+      <c r="H297" s="1" t="n">
+        <v>44301.60140046296</v>
       </c>
       <c r="I297" t="n">
         <v>1</v>
@@ -22156,10 +21580,8 @@
           <t>4416875720</t>
         </is>
       </c>
-      <c r="H298" t="inlineStr">
-        <is>
-          <t>2021-04-15 14:25:59</t>
-        </is>
+      <c r="H298" s="1" t="n">
+        <v>44301.60137731482</v>
       </c>
       <c r="I298" t="n">
         <v>2</v>
@@ -22227,10 +21649,8 @@
           <t>4416890884</t>
         </is>
       </c>
-      <c r="H299" t="inlineStr">
-        <is>
-          <t>2021-04-15 14:24:48</t>
-        </is>
+      <c r="H299" s="1" t="n">
+        <v>44301.60055555555</v>
       </c>
       <c r="I299" t="n">
         <v>1</v>
@@ -22302,10 +21722,8 @@
           <t>4416891880</t>
         </is>
       </c>
-      <c r="H300" t="inlineStr">
-        <is>
-          <t>2021-04-15 14:24:44</t>
-        </is>
+      <c r="H300" s="1" t="n">
+        <v>44301.60050925926</v>
       </c>
       <c r="I300" t="n">
         <v>1</v>
@@ -22369,10 +21787,8 @@
           <t>4416891831</t>
         </is>
       </c>
-      <c r="H301" t="inlineStr">
-        <is>
-          <t>2021-04-15 14:24:41</t>
-        </is>
+      <c r="H301" s="1" t="n">
+        <v>44301.60047453704</v>
       </c>
       <c r="I301" t="n">
         <v>4</v>
@@ -22451,10 +21867,8 @@
           <t>4416890884</t>
         </is>
       </c>
-      <c r="H302" t="inlineStr">
-        <is>
-          <t>2021-04-15 14:23:48</t>
-        </is>
+      <c r="H302" s="1" t="n">
+        <v>44301.59986111111</v>
       </c>
       <c r="I302" t="n">
         <v>29</v>
@@ -22530,10 +21944,8 @@
           <t>4416885874</t>
         </is>
       </c>
-      <c r="H303" t="inlineStr">
-        <is>
-          <t>2021-04-15 14:23:38</t>
-        </is>
+      <c r="H303" s="1" t="n">
+        <v>44301.59974537037</v>
       </c>
       <c r="I303" t="n">
         <v>1</v>
@@ -22605,10 +22017,8 @@
           <t>4416853217</t>
         </is>
       </c>
-      <c r="H304" t="inlineStr">
-        <is>
-          <t>2021-04-15 14:23:31</t>
-        </is>
+      <c r="H304" s="1" t="n">
+        <v>44301.59966435185</v>
       </c>
       <c r="I304" t="n">
         <v>12</v>
@@ -22684,10 +22094,8 @@
           <t>4416885874</t>
         </is>
       </c>
-      <c r="H305" t="inlineStr">
-        <is>
-          <t>2021-04-15 14:23:00</t>
-        </is>
+      <c r="H305" s="1" t="n">
+        <v>44301.59930555556</v>
       </c>
       <c r="I305" t="n">
         <v>34</v>
@@ -22774,10 +22182,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H306" t="inlineStr">
-        <is>
-          <t>2021-04-15 14:22:33</t>
-        </is>
+      <c r="H306" s="1" t="n">
+        <v>44301.59899305556</v>
       </c>
       <c r="I306" t="n">
         <v>1333</v>
@@ -22846,10 +22252,8 @@
           <t>4416853217</t>
         </is>
       </c>
-      <c r="H307" t="inlineStr">
-        <is>
-          <t>2021-04-15 14:21:46</t>
-        </is>
+      <c r="H307" s="1" t="n">
+        <v>44301.59844907407</v>
       </c>
       <c r="I307" t="n">
         <v>1</v>
@@ -22925,10 +22329,8 @@
           <t>4416877719</t>
         </is>
       </c>
-      <c r="H308" t="inlineStr">
-        <is>
-          <t>2021-04-15 14:20:44</t>
-        </is>
+      <c r="H308" s="1" t="n">
+        <v>44301.59773148148</v>
       </c>
       <c r="I308" t="n">
         <v>2</v>
@@ -23000,10 +22402,8 @@
           <t>4416867752</t>
         </is>
       </c>
-      <c r="H309" t="inlineStr">
-        <is>
-          <t>2021-04-15 14:20:37</t>
-        </is>
+      <c r="H309" s="1" t="n">
+        <v>44301.59765046297</v>
       </c>
       <c r="I309" t="n">
         <v>17</v>
@@ -23075,10 +22475,8 @@
           <t>4416875720</t>
         </is>
       </c>
-      <c r="H310" t="inlineStr">
-        <is>
-          <t>2021-04-15 14:20:33</t>
-        </is>
+      <c r="H310" s="1" t="n">
+        <v>44301.59760416667</v>
       </c>
       <c r="I310" t="n">
         <v>59</v>
@@ -23154,10 +22552,8 @@
           <t>4416875720</t>
         </is>
       </c>
-      <c r="H311" t="inlineStr">
-        <is>
-          <t>2021-04-15 14:20:01</t>
-        </is>
+      <c r="H311" s="1" t="n">
+        <v>44301.5972337963</v>
       </c>
       <c r="I311" t="n">
         <v>23</v>
@@ -23229,10 +22625,8 @@
           <t>4416841088</t>
         </is>
       </c>
-      <c r="H312" t="inlineStr">
-        <is>
-          <t>2021-04-15 14:19:58</t>
-        </is>
+      <c r="H312" s="1" t="n">
+        <v>44301.59719907407</v>
       </c>
       <c r="I312" t="n">
         <v>3</v>
@@ -23304,10 +22698,8 @@
           <t>4416867752</t>
         </is>
       </c>
-      <c r="H313" t="inlineStr">
-        <is>
-          <t>2021-04-15 14:18:48</t>
-        </is>
+      <c r="H313" s="1" t="n">
+        <v>44301.59638888889</v>
       </c>
       <c r="I313" t="n">
         <v>58</v>
@@ -23375,10 +22767,8 @@
           <t>4416875720</t>
         </is>
       </c>
-      <c r="H314" t="inlineStr">
-        <is>
-          <t>2021-04-15 14:18:43</t>
-        </is>
+      <c r="H314" s="1" t="n">
+        <v>44301.59633101852</v>
       </c>
       <c r="I314" t="n">
         <v>100</v>
@@ -23438,10 +22828,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H315" t="inlineStr">
-        <is>
-          <t>2021-04-15 14:18:18</t>
-        </is>
+      <c r="H315" s="1" t="n">
+        <v>44301.59604166666</v>
       </c>
       <c r="I315" t="n">
         <v>208</v>
@@ -23509,10 +22897,8 @@
           <t>4416841088</t>
         </is>
       </c>
-      <c r="H316" t="inlineStr">
-        <is>
-          <t>2021-04-15 14:17:46</t>
-        </is>
+      <c r="H316" s="1" t="n">
+        <v>44301.59567129629</v>
       </c>
       <c r="I316" t="n">
         <v>4</v>
@@ -23576,10 +22962,8 @@
           <t>4416858676</t>
         </is>
       </c>
-      <c r="H317" t="inlineStr">
-        <is>
-          <t>2021-04-15 14:16:00</t>
-        </is>
+      <c r="H317" s="1" t="n">
+        <v>44301.59444444445</v>
       </c>
       <c r="I317" t="n">
         <v>10</v>
@@ -23655,10 +23039,8 @@
           <t>4416836181</t>
         </is>
       </c>
-      <c r="H318" t="inlineStr">
-        <is>
-          <t>2021-04-15 14:15:56</t>
-        </is>
+      <c r="H318" s="1" t="n">
+        <v>44301.59439814815</v>
       </c>
       <c r="I318" t="n">
         <v>54</v>
@@ -23734,10 +23116,8 @@
           <t>4416853813</t>
         </is>
       </c>
-      <c r="H319" t="inlineStr">
-        <is>
-          <t>2021-04-15 14:14:57</t>
-        </is>
+      <c r="H319" s="1" t="n">
+        <v>44301.59371527778</v>
       </c>
       <c r="I319" t="n">
         <v>1</v>
@@ -23809,10 +23189,8 @@
           <t>4416853631</t>
         </is>
       </c>
-      <c r="H320" t="inlineStr">
-        <is>
-          <t>2021-04-15 14:14:47</t>
-        </is>
+      <c r="H320" s="1" t="n">
+        <v>44301.59359953704</v>
       </c>
       <c r="I320" t="n">
         <v>15</v>
@@ -23888,10 +23266,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H321" t="inlineStr">
-        <is>
-          <t>2021-04-15 14:14:31</t>
-        </is>
+      <c r="H321" s="1" t="n">
+        <v>44301.59341435185</v>
       </c>
       <c r="I321" t="n">
         <v>3</v>
@@ -23967,10 +23343,8 @@
           <t>4416857015</t>
         </is>
       </c>
-      <c r="H322" t="inlineStr">
-        <is>
-          <t>2021-04-15 14:14:25</t>
-        </is>
+      <c r="H322" s="1" t="n">
+        <v>44301.59334490741</v>
       </c>
       <c r="I322" t="n">
         <v>11</v>
@@ -24038,10 +23412,8 @@
           <t>4416853217</t>
         </is>
       </c>
-      <c r="H323" t="inlineStr">
-        <is>
-          <t>2021-04-15 14:14:23</t>
-        </is>
+      <c r="H323" s="1" t="n">
+        <v>44301.59332175926</v>
       </c>
       <c r="I323" t="n">
         <v>0</v>
@@ -24117,10 +23489,8 @@
           <t>4416860830</t>
         </is>
       </c>
-      <c r="H324" t="inlineStr">
-        <is>
-          <t>2021-04-15 14:14:01</t>
-        </is>
+      <c r="H324" s="1" t="n">
+        <v>44301.59306712963</v>
       </c>
       <c r="I324" t="n">
         <v>4</v>
@@ -24188,10 +23558,8 @@
           <t>4416852585</t>
         </is>
       </c>
-      <c r="H325" t="inlineStr">
-        <is>
-          <t>2021-04-15 14:13:48</t>
-        </is>
+      <c r="H325" s="1" t="n">
+        <v>44301.59291666667</v>
       </c>
       <c r="I325" t="n">
         <v>7</v>
@@ -24263,10 +23631,8 @@
           <t>4416860507</t>
         </is>
       </c>
-      <c r="H326" t="inlineStr">
-        <is>
-          <t>2021-04-15 14:13:43</t>
-        </is>
+      <c r="H326" s="1" t="n">
+        <v>44301.5928587963</v>
       </c>
       <c r="I326" t="n">
         <v>47</v>
@@ -24338,10 +23704,8 @@
           <t>4416851013</t>
         </is>
       </c>
-      <c r="H327" t="inlineStr">
-        <is>
-          <t>2021-04-15 14:12:17</t>
-        </is>
+      <c r="H327" s="1" t="n">
+        <v>44301.59186342593</v>
       </c>
       <c r="I327" t="n">
         <v>1</v>
@@ -24417,10 +23781,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H328" t="inlineStr">
-        <is>
-          <t>2021-04-15 14:12:05</t>
-        </is>
+      <c r="H328" s="1" t="n">
+        <v>44301.59172453704</v>
       </c>
       <c r="I328" t="n">
         <v>1501</v>
@@ -24492,10 +23854,8 @@
           <t>4416836181</t>
         </is>
       </c>
-      <c r="H329" t="inlineStr">
-        <is>
-          <t>2021-04-15 14:10:46</t>
-        </is>
+      <c r="H329" s="1" t="n">
+        <v>44301.59081018518</v>
       </c>
       <c r="I329" t="n">
         <v>5</v>
@@ -24571,10 +23931,8 @@
           <t>4416843026</t>
         </is>
       </c>
-      <c r="H330" t="inlineStr">
-        <is>
-          <t>2021-04-15 14:10:33</t>
-        </is>
+      <c r="H330" s="1" t="n">
+        <v>44301.59065972222</v>
       </c>
       <c r="I330" t="n">
         <v>0</v>
@@ -24647,10 +24005,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H331" t="inlineStr">
-        <is>
-          <t>2021-04-15 14:10:32</t>
-        </is>
+      <c r="H331" s="1" t="n">
+        <v>44301.59064814815</v>
       </c>
       <c r="I331" t="n">
         <v>38</v>
@@ -24722,10 +24078,8 @@
           <t>4416839155</t>
         </is>
       </c>
-      <c r="H332" t="inlineStr">
-        <is>
-          <t>2021-04-15 14:10:28</t>
-        </is>
+      <c r="H332" s="1" t="n">
+        <v>44301.59060185185</v>
       </c>
       <c r="I332" t="n">
         <v>2</v>
@@ -24798,10 +24152,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H333" t="inlineStr">
-        <is>
-          <t>2021-04-15 14:10:12</t>
-        </is>
+      <c r="H333" s="1" t="n">
+        <v>44301.59041666667</v>
       </c>
       <c r="I333" t="n">
         <v>0</v>
@@ -24873,10 +24225,8 @@
           <t>4416841619</t>
         </is>
       </c>
-      <c r="H334" t="inlineStr">
-        <is>
-          <t>2021-04-15 14:09:11</t>
-        </is>
+      <c r="H334" s="1" t="n">
+        <v>44301.58971064815</v>
       </c>
       <c r="I334" t="n">
         <v>17</v>
@@ -24948,10 +24298,8 @@
           <t>4416841420</t>
         </is>
       </c>
-      <c r="H335" t="inlineStr">
-        <is>
-          <t>2021-04-15 14:08:57</t>
-        </is>
+      <c r="H335" s="1" t="n">
+        <v>44301.58954861111</v>
       </c>
       <c r="I335" t="n">
         <v>8</v>
@@ -25019,10 +24367,8 @@
           <t>4416841088</t>
         </is>
       </c>
-      <c r="H336" t="inlineStr">
-        <is>
-          <t>2021-04-15 14:08:39</t>
-        </is>
+      <c r="H336" s="1" t="n">
+        <v>44301.58934027778</v>
       </c>
       <c r="I336" t="n">
         <v>69</v>
@@ -25094,10 +24440,8 @@
           <t>4416845120</t>
         </is>
       </c>
-      <c r="H337" t="inlineStr">
-        <is>
-          <t>2021-04-15 14:08:32</t>
-        </is>
+      <c r="H337" s="1" t="n">
+        <v>44301.58925925926</v>
       </c>
       <c r="I337" t="n">
         <v>24</v>
@@ -25165,10 +24509,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H338" t="inlineStr">
-        <is>
-          <t>2021-04-15 14:08:27</t>
-        </is>
+      <c r="H338" s="1" t="n">
+        <v>44301.58920138889</v>
       </c>
       <c r="I338" t="n">
         <v>1</v>
@@ -25236,10 +24578,8 @@
           <t>4416837113</t>
         </is>
       </c>
-      <c r="H339" t="inlineStr">
-        <is>
-          <t>2021-04-15 14:08:27</t>
-        </is>
+      <c r="H339" s="1" t="n">
+        <v>44301.58920138889</v>
       </c>
       <c r="I339" t="n">
         <v>1</v>
@@ -25311,10 +24651,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H340" t="inlineStr">
-        <is>
-          <t>2021-04-15 14:08:20</t>
-        </is>
+      <c r="H340" s="1" t="n">
+        <v>44301.58912037037</v>
       </c>
       <c r="I340" t="n">
         <v>0</v>
@@ -25390,10 +24728,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H341" t="inlineStr">
-        <is>
-          <t>2021-04-15 14:08:10</t>
-        </is>
+      <c r="H341" s="1" t="n">
+        <v>44301.58900462963</v>
       </c>
       <c r="I341" t="n">
         <v>78</v>
@@ -25480,10 +24816,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H342" t="inlineStr">
-        <is>
-          <t>2021-04-15 14:07:40</t>
-        </is>
+      <c r="H342" s="1" t="n">
+        <v>44301.58865740741</v>
       </c>
       <c r="I342" t="n">
         <v>767</v>
@@ -25547,10 +24881,8 @@
           <t>4416836181</t>
         </is>
       </c>
-      <c r="H343" t="inlineStr">
-        <is>
-          <t>2021-04-15 14:07:32</t>
-        </is>
+      <c r="H343" s="1" t="n">
+        <v>44301.58856481482</v>
       </c>
       <c r="I343" t="n">
         <v>115</v>
@@ -25618,10 +24950,8 @@
           <t>4416833492</t>
         </is>
       </c>
-      <c r="H344" t="inlineStr">
-        <is>
-          <t>2021-04-15 14:06:53</t>
-        </is>
+      <c r="H344" s="1" t="n">
+        <v>44301.58811342593</v>
       </c>
       <c r="I344" t="n">
         <v>30</v>
@@ -25685,10 +25015,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H345" t="inlineStr">
-        <is>
-          <t>2021-04-15 14:06:52</t>
-        </is>
+      <c r="H345" s="1" t="n">
+        <v>44301.58810185185</v>
       </c>
       <c r="I345" t="n">
         <v>0</v>
@@ -25756,10 +25084,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H346" t="inlineStr">
-        <is>
-          <t>2021-04-15 14:06:31</t>
-        </is>
+      <c r="H346" s="1" t="n">
+        <v>44301.58785879629</v>
       </c>
       <c r="I346" t="n">
         <v>21</v>
@@ -25828,10 +25154,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H347" t="inlineStr">
-        <is>
-          <t>2021-04-15 14:06:02</t>
-        </is>
+      <c r="H347" s="1" t="n">
+        <v>44301.58752314815</v>
       </c>
       <c r="I347" t="n">
         <v>404</v>
@@ -25907,10 +25231,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H348" t="inlineStr">
-        <is>
-          <t>2021-04-15 14:05:44</t>
-        </is>
+      <c r="H348" s="1" t="n">
+        <v>44301.58731481482</v>
       </c>
       <c r="I348" t="n">
         <v>0</v>
@@ -25978,10 +25300,8 @@
           <t>4416824016</t>
         </is>
       </c>
-      <c r="H349" t="inlineStr">
-        <is>
-          <t>2021-04-15 14:05:26</t>
-        </is>
+      <c r="H349" s="1" t="n">
+        <v>44301.58710648148</v>
       </c>
       <c r="I349" t="n">
         <v>0</v>
@@ -26049,10 +25369,8 @@
           <t>4416824018</t>
         </is>
       </c>
-      <c r="H350" t="inlineStr">
-        <is>
-          <t>2021-04-15 14:05:26</t>
-        </is>
+      <c r="H350" s="1" t="n">
+        <v>44301.58710648148</v>
       </c>
       <c r="I350" t="n">
         <v>0</v>
@@ -26128,10 +25446,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H351" t="inlineStr">
-        <is>
-          <t>2021-04-15 14:05:13</t>
-        </is>
+      <c r="H351" s="1" t="n">
+        <v>44301.58695601852</v>
       </c>
       <c r="I351" t="n">
         <v>1</v>
@@ -26191,10 +25507,8 @@
           <t>4416831662</t>
         </is>
       </c>
-      <c r="H352" t="inlineStr">
-        <is>
-          <t>2021-04-15 14:05:09</t>
-        </is>
+      <c r="H352" s="1" t="n">
+        <v>44301.58690972222</v>
       </c>
       <c r="I352" t="n">
         <v>0</v>
@@ -26263,10 +25577,8 @@
           <t>4416831557</t>
         </is>
       </c>
-      <c r="H353" t="inlineStr">
-        <is>
-          <t>2021-04-15 14:05:03</t>
-        </is>
+      <c r="H353" s="1" t="n">
+        <v>44301.58684027778</v>
       </c>
       <c r="I353" t="n">
         <v>22</v>
@@ -26330,10 +25642,8 @@
           <t>4416831333</t>
         </is>
       </c>
-      <c r="H354" t="inlineStr">
-        <is>
-          <t>2021-04-15 14:04:50</t>
-        </is>
+      <c r="H354" s="1" t="n">
+        <v>44301.58668981482</v>
       </c>
       <c r="I354" t="n">
         <v>0</v>
@@ -26409,10 +25719,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H355" t="inlineStr">
-        <is>
-          <t>2021-04-15 14:04:45</t>
-        </is>
+      <c r="H355" s="1" t="n">
+        <v>44301.58663194445</v>
       </c>
       <c r="I355" t="n">
         <v>811</v>
@@ -26488,10 +25796,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H356" t="inlineStr">
-        <is>
-          <t>2021-04-15 14:04:35</t>
-        </is>
+      <c r="H356" s="1" t="n">
+        <v>44301.5865162037</v>
       </c>
       <c r="I356" t="n">
         <v>0</v>
@@ -26563,10 +25869,8 @@
           <t>4416822416</t>
         </is>
       </c>
-      <c r="H357" t="inlineStr">
-        <is>
-          <t>2021-04-15 14:03:55</t>
-        </is>
+      <c r="H357" s="1" t="n">
+        <v>44301.58605324074</v>
       </c>
       <c r="I357" t="n">
         <v>0</v>
@@ -26638,10 +25942,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H358" t="inlineStr">
-        <is>
-          <t>2021-04-15 14:03:42</t>
-        </is>
+      <c r="H358" s="1" t="n">
+        <v>44301.58590277778</v>
       </c>
       <c r="I358" t="n">
         <v>0</v>
@@ -26718,10 +26020,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H359" t="inlineStr">
-        <is>
-          <t>2021-04-15 14:03:32</t>
-        </is>
+      <c r="H359" s="1" t="n">
+        <v>44301.58578703704</v>
       </c>
       <c r="I359" t="n">
         <v>8</v>
@@ -26796,10 +26096,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H360" t="inlineStr">
-        <is>
-          <t>2021-04-15 14:03:31</t>
-        </is>
+      <c r="H360" s="1" t="n">
+        <v>44301.58577546296</v>
       </c>
       <c r="I360" t="n">
         <v>5</v>
@@ -26875,10 +26173,8 @@
           <t>4416819873</t>
         </is>
       </c>
-      <c r="H361" t="inlineStr">
-        <is>
-          <t>2021-04-15 14:03:27</t>
-        </is>
+      <c r="H361" s="1" t="n">
+        <v>44301.58572916667</v>
       </c>
       <c r="I361" t="n">
         <v>1</v>
@@ -26950,10 +26246,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H362" t="inlineStr">
-        <is>
-          <t>2021-04-15 14:03:10</t>
-        </is>
+      <c r="H362" s="1" t="n">
+        <v>44301.58553240741</v>
       </c>
       <c r="I362" t="n">
         <v>92</v>
@@ -27029,10 +26323,8 @@
           <t>4416825236</t>
         </is>
       </c>
-      <c r="H363" t="inlineStr">
-        <is>
-          <t>2021-04-15 14:03:06</t>
-        </is>
+      <c r="H363" s="1" t="n">
+        <v>44301.58548611111</v>
       </c>
       <c r="I363" t="n">
         <v>0</v>
@@ -27104,10 +26396,8 @@
           <t>4416821574</t>
         </is>
       </c>
-      <c r="H364" t="inlineStr">
-        <is>
-          <t>2021-04-15 14:03:06</t>
-        </is>
+      <c r="H364" s="1" t="n">
+        <v>44301.58548611111</v>
       </c>
       <c r="I364" t="n">
         <v>0</v>
@@ -27183,10 +26473,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H365" t="inlineStr">
-        <is>
-          <t>2021-04-15 14:02:53</t>
-        </is>
+      <c r="H365" s="1" t="n">
+        <v>44301.58533564815</v>
       </c>
       <c r="I365" t="n">
         <v>0</v>
@@ -27254,10 +26542,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H366" t="inlineStr">
-        <is>
-          <t>2021-04-15 14:02:39</t>
-        </is>
+      <c r="H366" s="1" t="n">
+        <v>44301.58517361111</v>
       </c>
       <c r="I366" t="n">
         <v>3</v>
@@ -27329,10 +26615,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H367" t="inlineStr">
-        <is>
-          <t>2021-04-15 14:02:34</t>
-        </is>
+      <c r="H367" s="1" t="n">
+        <v>44301.58511574074</v>
       </c>
       <c r="I367" t="n">
         <v>0</v>
@@ -27408,10 +26692,8 @@
           <t>4416818852</t>
         </is>
       </c>
-      <c r="H368" t="inlineStr">
-        <is>
-          <t>2021-04-15 14:02:31</t>
-        </is>
+      <c r="H368" s="1" t="n">
+        <v>44301.58508101852</v>
       </c>
       <c r="I368" t="n">
         <v>0</v>
@@ -27479,10 +26761,8 @@
           <t>4416814524</t>
         </is>
       </c>
-      <c r="H369" t="inlineStr">
-        <is>
-          <t>2021-04-15 14:02:25</t>
-        </is>
+      <c r="H369" s="1" t="n">
+        <v>44301.58501157408</v>
       </c>
       <c r="I369" t="n">
         <v>0</v>
@@ -27591,10 +26871,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H370" t="inlineStr">
-        <is>
-          <t>2021-04-15 14:02:18</t>
-        </is>
+      <c r="H370" s="1" t="n">
+        <v>44301.58493055555</v>
       </c>
       <c r="I370" t="n">
         <v>398</v>
@@ -27662,10 +26940,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H371" t="inlineStr">
-        <is>
-          <t>2021-04-15 14:02:15</t>
-        </is>
+      <c r="H371" s="1" t="n">
+        <v>44301.58489583333</v>
       </c>
       <c r="I371" t="n">
         <v>0</v>
@@ -27731,10 +27007,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H372" t="inlineStr">
-        <is>
-          <t>2021-04-15 14:02:14</t>
-        </is>
+      <c r="H372" s="1" t="n">
+        <v>44301.58488425926</v>
       </c>
       <c r="I372" t="n">
         <v>409</v>
@@ -27798,10 +27072,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H373" t="inlineStr">
-        <is>
-          <t>2021-04-15 14:02:07</t>
-        </is>
+      <c r="H373" s="1" t="n">
+        <v>44301.58480324074</v>
       </c>
       <c r="I373" t="n">
         <v>0</v>
@@ -27861,10 +27133,8 @@
           <t>4416814104</t>
         </is>
       </c>
-      <c r="H374" t="inlineStr">
-        <is>
-          <t>2021-04-15 14:02:01</t>
-        </is>
+      <c r="H374" s="1" t="n">
+        <v>44301.5847337963</v>
       </c>
       <c r="I374" t="n">
         <v>0</v>
@@ -27932,10 +27202,8 @@
           <t>4416820282</t>
         </is>
       </c>
-      <c r="H375" t="inlineStr">
-        <is>
-          <t>2021-04-15 14:01:53</t>
-        </is>
+      <c r="H375" s="1" t="n">
+        <v>44301.58464120371</v>
       </c>
       <c r="I375" t="n">
         <v>0</v>
@@ -28003,10 +27271,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H376" t="inlineStr">
-        <is>
-          <t>2021-04-15 14:01:44</t>
-        </is>
+      <c r="H376" s="1" t="n">
+        <v>44301.58453703704</v>
       </c>
       <c r="I376" t="n">
         <v>38</v>
@@ -28082,10 +27348,8 @@
           <t>4416813802</t>
         </is>
       </c>
-      <c r="H377" t="inlineStr">
-        <is>
-          <t>2021-04-15 14:01:44</t>
-        </is>
+      <c r="H377" s="1" t="n">
+        <v>44301.58453703704</v>
       </c>
       <c r="I377" t="n">
         <v>0</v>
@@ -28161,10 +27425,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H378" t="inlineStr">
-        <is>
-          <t>2021-04-15 14:01:43</t>
-        </is>
+      <c r="H378" s="1" t="n">
+        <v>44301.58452546296</v>
       </c>
       <c r="I378" t="n">
         <v>0</v>
@@ -28228,10 +27490,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H379" t="inlineStr">
-        <is>
-          <t>2021-04-15 14:01:39</t>
-        </is>
+      <c r="H379" s="1" t="n">
+        <v>44301.58447916667</v>
       </c>
       <c r="I379" t="n">
         <v>0</v>
@@ -28299,10 +27559,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H380" t="inlineStr">
-        <is>
-          <t>2021-04-15 14:01:36</t>
-        </is>
+      <c r="H380" s="1" t="n">
+        <v>44301.58444444444</v>
       </c>
       <c r="I380" t="n">
         <v>0</v>
@@ -28378,10 +27636,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H381" t="inlineStr">
-        <is>
-          <t>2021-04-15 14:01:11</t>
-        </is>
+      <c r="H381" s="1" t="n">
+        <v>44301.58415509259</v>
       </c>
       <c r="I381" t="n">
         <v>3</v>
@@ -28449,10 +27705,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H382" t="inlineStr">
-        <is>
-          <t>2021-04-15 14:00:49</t>
-        </is>
+      <c r="H382" s="1" t="n">
+        <v>44301.58390046296</v>
       </c>
       <c r="I382" t="n">
         <v>0</v>
@@ -28516,10 +27770,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H383" t="inlineStr">
-        <is>
-          <t>2021-04-15 14:00:45</t>
-        </is>
+      <c r="H383" s="1" t="n">
+        <v>44301.58385416667</v>
       </c>
       <c r="I383" t="n">
         <v>2</v>
@@ -28583,10 +27835,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H384" t="inlineStr">
-        <is>
-          <t>2021-04-15 14:00:45</t>
-        </is>
+      <c r="H384" s="1" t="n">
+        <v>44301.58385416667</v>
       </c>
       <c r="I384" t="n">
         <v>0</v>
@@ -28662,10 +27912,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H385" t="inlineStr">
-        <is>
-          <t>2021-04-15 14:00:44</t>
-        </is>
+      <c r="H385" s="1" t="n">
+        <v>44301.58384259259</v>
       </c>
       <c r="I385" t="n">
         <v>0</v>
@@ -28733,10 +27981,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H386" t="inlineStr">
-        <is>
-          <t>2021-04-15 14:00:41</t>
-        </is>
+      <c r="H386" s="1" t="n">
+        <v>44301.58380787037</v>
       </c>
       <c r="I386" t="n">
         <v>2</v>
@@ -28812,10 +28058,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H387" t="inlineStr">
-        <is>
-          <t>2021-04-15 14:00:40</t>
-        </is>
+      <c r="H387" s="1" t="n">
+        <v>44301.5837962963</v>
       </c>
       <c r="I387" t="n">
         <v>0</v>
@@ -28879,10 +28123,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H388" t="inlineStr">
-        <is>
-          <t>2021-04-15 14:00:39</t>
-        </is>
+      <c r="H388" s="1" t="n">
+        <v>44301.58378472222</v>
       </c>
       <c r="I388" t="n">
         <v>4</v>
@@ -28958,10 +28200,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H389" t="inlineStr">
-        <is>
-          <t>2021-04-15 14:00:29</t>
-        </is>
+      <c r="H389" s="1" t="n">
+        <v>44301.58366898148</v>
       </c>
       <c r="I389" t="n">
         <v>2</v>
@@ -29025,10 +28265,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H390" t="inlineStr">
-        <is>
-          <t>2021-04-15 14:00:28</t>
-        </is>
+      <c r="H390" s="1" t="n">
+        <v>44301.58365740741</v>
       </c>
       <c r="I390" t="n">
         <v>6</v>
